--- a/马丁亏损计算器.xlsx
+++ b/马丁亏损计算器.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\file\ForexEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46878176-0632-4017-A11E-78DFD7DB5535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ED1C25-7C20-4EC5-A885-846EB0E600C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>参数</t>
   </si>
@@ -69,6 +70,9 @@
   </si>
   <si>
     <t>单边多少刀</t>
+  </si>
+  <si>
+    <t>EURUSD</t>
   </si>
 </sst>
 </file>
@@ -141,9 +145,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -164,6 +165,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -449,43 +453,43 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="3" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -500,14 +504,14 @@
         <f>SUM($B$2:B2)</f>
         <v>0.01</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>0</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:E24" si="0">C2*$R$2*$P$3</f>
         <v>2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <f>0</f>
         <v>0</v>
       </c>
@@ -529,14 +533,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>ROUND($B$2*POWER($P$2,A2),2)</f>
+        <f>ROUNDDOWN($B$2*POWER($P$2,A2),2)</f>
         <v>0.01</v>
       </c>
       <c r="C3" s="1">
         <f>SUM($B$2:B3)</f>
         <v>0.02</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <f>D2+$P$3</f>
         <v>2</v>
       </c>
@@ -544,7 +548,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <f>F2+E2</f>
         <v>2</v>
       </c>
@@ -560,14 +564,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B40" si="1">ROUND($B$2*POWER($P$2,A3),2)</f>
+        <f t="shared" ref="B4:B40" si="1">ROUNDDOWN($B$2*POWER($P$2,A3),2)</f>
         <v>0.01</v>
       </c>
       <c r="C4" s="1">
         <f>SUM($B$2:B4)</f>
         <v>0.03</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <f t="shared" ref="D4:D40" si="2">D3+$P$3</f>
         <v>4</v>
       </c>
@@ -575,8 +579,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F4" s="8">
-        <f t="shared" ref="F4:F25" si="3">F3+E3</f>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F24" si="3">F3+E3</f>
         <v>6</v>
       </c>
     </row>
@@ -586,21 +590,21 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="1"/>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C5" s="1">
         <f>SUM($B$2:B5)</f>
-        <v>0.05</v>
-      </c>
-      <c r="D5" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="9">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F5" s="8">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -615,19 +619,19 @@
       </c>
       <c r="C6" s="1">
         <f>SUM($B$2:B6)</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D6" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="D6" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>14.000000000000002</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -640,19 +644,19 @@
       </c>
       <c r="C7" s="1">
         <f>SUM($B$2:B7)</f>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="D7" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="D7" s="9">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>18.000000000000004</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="3"/>
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -661,23 +665,23 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="C8" s="1">
         <f>SUM($B$2:B8)</f>
-        <v>0.12000000000000001</v>
-      </c>
-      <c r="D8" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="9">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>24.000000000000004</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="3"/>
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="3"/>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -686,23 +690,23 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="C9" s="1">
         <f>SUM($B$2:B9)</f>
-        <v>0.16</v>
-      </c>
-      <c r="D9" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="D9" s="9">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="3"/>
-        <v>78</v>
+        <v>26</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="3"/>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -715,19 +719,19 @@
       </c>
       <c r="C10" s="1">
         <f>SUM($B$2:B10)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D10" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="D10" s="9">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="3"/>
-        <v>110</v>
+        <v>34</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="3"/>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -740,19 +744,19 @@
       </c>
       <c r="C11" s="1">
         <f>SUM($B$2:B11)</f>
-        <v>0.25</v>
-      </c>
-      <c r="D11" s="10">
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="D11" s="9">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <v>44.000000000000007</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="3"/>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -765,19 +769,19 @@
       </c>
       <c r="C12" s="1">
         <f>SUM($B$2:B12)</f>
-        <v>0.31</v>
-      </c>
-      <c r="D12" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D12" s="9">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="3"/>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -790,19 +794,19 @@
       </c>
       <c r="C13" s="1">
         <f>SUM($B$2:B13)</f>
-        <v>0.38</v>
-      </c>
-      <c r="D13" s="10">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D13" s="9">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="3"/>
-        <v>262</v>
+        <v>70</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="3"/>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -811,23 +815,23 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="C14" s="1">
         <f>SUM($B$2:B14)</f>
-        <v>0.47</v>
-      </c>
-      <c r="D14" s="10">
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="D14" s="9">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="3"/>
-        <v>338</v>
+        <v>86.000000000000014</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="3"/>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -836,23 +840,23 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="C15" s="1">
         <f>SUM($B$2:B15)</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D15" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="D15" s="9">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>115.99999999999999</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="3"/>
-        <v>432</v>
+        <v>106</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="3"/>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -861,23 +865,23 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="C16" s="1">
         <f>SUM($B$2:B16)</f>
-        <v>0.71</v>
-      </c>
-      <c r="D16" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="D16" s="9">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="3"/>
-        <v>548</v>
+        <v>130</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="3"/>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,19 +894,19 @@
       </c>
       <c r="C17" s="1">
         <f>SUM($B$2:B17)</f>
-        <v>0.86</v>
-      </c>
-      <c r="D17" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="9">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>172</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="3"/>
-        <v>690</v>
+        <v>160</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="3"/>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -915,19 +919,19 @@
       </c>
       <c r="C18" s="1">
         <f>SUM($B$2:B18)</f>
-        <v>1.04</v>
-      </c>
-      <c r="D18" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="D18" s="9">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>208</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="3"/>
-        <v>862</v>
+        <v>196</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="3"/>
+        <v>780</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -940,19 +944,19 @@
       </c>
       <c r="C19" s="1">
         <f>SUM($B$2:B19)</f>
-        <v>1.26</v>
-      </c>
-      <c r="D19" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="D19" s="9">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>252</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="3"/>
-        <v>1070</v>
+        <v>240</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="3"/>
+        <v>976</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,23 +965,23 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="C20" s="1">
         <f>SUM($B$2:B20)</f>
-        <v>1.53</v>
-      </c>
-      <c r="D20" s="10">
+        <v>1.46</v>
+      </c>
+      <c r="D20" s="9">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>306</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" si="3"/>
-        <v>1322</v>
+        <v>292</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="3"/>
+        <v>1216</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -986,23 +990,23 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="C21" s="1">
         <f>SUM($B$2:B21)</f>
-        <v>1.85</v>
-      </c>
-      <c r="D21" s="10">
+        <v>1.77</v>
+      </c>
+      <c r="D21" s="9">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>370</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="3"/>
-        <v>1628</v>
+        <v>354</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="3"/>
+        <v>1508</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,19 +1019,19 @@
       </c>
       <c r="C22" s="1">
         <f>SUM($B$2:B22)</f>
-        <v>2.23</v>
-      </c>
-      <c r="D22" s="10">
+        <v>2.15</v>
+      </c>
+      <c r="D22" s="9">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>446</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="3"/>
-        <v>1998</v>
+        <v>430</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="3"/>
+        <v>1862</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1040,19 +1044,19 @@
       </c>
       <c r="C23" s="1">
         <f>SUM($B$2:B23)</f>
-        <v>2.69</v>
-      </c>
-      <c r="D23" s="10">
+        <v>2.61</v>
+      </c>
+      <c r="D23" s="9">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>538</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="3"/>
-        <v>2444</v>
+        <v>522</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="3"/>
+        <v>2292</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1065,19 +1069,19 @@
       </c>
       <c r="C24" s="1">
         <f>SUM($B$2:B24)</f>
-        <v>3.24</v>
-      </c>
-      <c r="D24" s="10">
+        <v>3.16</v>
+      </c>
+      <c r="D24" s="9">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>648</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" si="3"/>
-        <v>2982</v>
+        <v>632</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="3"/>
+        <v>2814</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1090,19 +1094,19 @@
       </c>
       <c r="C25" s="1">
         <f>SUM($B$2:B25)</f>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="D25" s="10">
+        <v>3.8200000000000003</v>
+      </c>
+      <c r="D25" s="9">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="E25" s="1">
         <f>C25*$R$2*$P$3</f>
-        <v>780.00000000000011</v>
-      </c>
-      <c r="F25" s="8">
+        <v>764</v>
+      </c>
+      <c r="F25" s="7">
         <f>F24+E24</f>
-        <v>3630</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1115,44 +1119,44 @@
       </c>
       <c r="C26" s="1">
         <f>SUM($B$2:B26)</f>
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="D26" s="10">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="D26" s="9">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" ref="E26:E40" si="4">C26*$R$2*$P$3</f>
-        <v>938.00000000000011</v>
-      </c>
-      <c r="F26" s="8">
+        <v>922.00000000000011</v>
+      </c>
+      <c r="F26" s="7">
         <f t="shared" ref="F26:F40" si="5">F25+E25</f>
-        <v>4410</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="1">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <f>SUM($B$2:B27)</f>
-        <v>5.6400000000000006</v>
-      </c>
-      <c r="D27" s="4">
+        <v>5.5600000000000005</v>
+      </c>
+      <c r="D27" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="E27" s="4">
-        <f t="shared" si="4"/>
-        <v>1128</v>
-      </c>
-      <c r="F27" s="4">
-        <f t="shared" si="5"/>
-        <v>5348</v>
+      <c r="E27" s="3">
+        <f t="shared" si="4"/>
+        <v>1112</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="5"/>
+        <v>5132</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1165,19 +1169,19 @@
       </c>
       <c r="C28" s="1">
         <f>SUM($B$2:B28)</f>
-        <v>6.78</v>
-      </c>
-      <c r="D28" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="D28" s="9">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="4"/>
-        <v>1356</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" si="5"/>
-        <v>6476</v>
+        <v>1340</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="5"/>
+        <v>6244</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1190,19 +1194,19 @@
       </c>
       <c r="C29" s="1">
         <f>SUM($B$2:B29)</f>
-        <v>8.15</v>
-      </c>
-      <c r="D29" s="10">
+        <v>8.07</v>
+      </c>
+      <c r="D29" s="9">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="4"/>
-        <v>1630</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" si="5"/>
-        <v>7832</v>
+        <v>1614</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="5"/>
+        <v>7584</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1211,23 +1215,23 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="C30" s="1">
         <f>SUM($B$2:B30)</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D30" s="10">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="D30" s="9">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="4"/>
-        <v>1960.0000000000002</v>
-      </c>
-      <c r="F30" s="8">
-        <f t="shared" si="5"/>
-        <v>9462</v>
+        <v>1942.0000000000002</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="5"/>
+        <v>9198</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1236,23 +1240,23 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="C31" s="1">
         <f>SUM($B$2:B31)</f>
-        <v>11.780000000000001</v>
-      </c>
-      <c r="D31" s="10">
+        <v>11.680000000000001</v>
+      </c>
+      <c r="D31" s="9">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="4"/>
-        <v>2356</v>
-      </c>
-      <c r="F31" s="8">
-        <f t="shared" si="5"/>
-        <v>11422</v>
+        <v>2336.0000000000005</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="5"/>
+        <v>11140</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1265,19 +1269,19 @@
       </c>
       <c r="C32" s="1">
         <f>SUM($B$2:B32)</f>
-        <v>14.150000000000002</v>
-      </c>
-      <c r="D32" s="10">
+        <v>14.05</v>
+      </c>
+      <c r="D32" s="9">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="4"/>
-        <v>2830.0000000000005</v>
-      </c>
-      <c r="F32" s="8">
-        <f t="shared" si="5"/>
-        <v>13778</v>
+        <v>2810</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="5"/>
+        <v>13476</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,23 +1290,23 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
-        <v>2.85</v>
+        <v>2.84</v>
       </c>
       <c r="C33" s="1">
         <f>SUM($B$2:B33)</f>
-        <v>17.000000000000004</v>
-      </c>
-      <c r="D33" s="10">
+        <v>16.89</v>
+      </c>
+      <c r="D33" s="9">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="4"/>
-        <v>3400.0000000000009</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" si="5"/>
-        <v>16608</v>
+        <v>3378</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="5"/>
+        <v>16286</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1311,23 +1315,23 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="C34" s="1">
         <f>SUM($B$2:B34)</f>
-        <v>20.420000000000002</v>
-      </c>
-      <c r="D34" s="10">
+        <v>20.3</v>
+      </c>
+      <c r="D34" s="9">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="4"/>
-        <v>4084.0000000000005</v>
-      </c>
-      <c r="F34" s="8">
-        <f t="shared" si="5"/>
-        <v>20008</v>
+        <v>4060</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="5"/>
+        <v>19664</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1340,19 +1344,19 @@
       </c>
       <c r="C35" s="1">
         <f>SUM($B$2:B35)</f>
-        <v>24.520000000000003</v>
-      </c>
-      <c r="D35" s="10">
+        <v>24.4</v>
+      </c>
+      <c r="D35" s="9">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="4"/>
-        <v>4904.0000000000009</v>
-      </c>
-      <c r="F35" s="8">
-        <f t="shared" si="5"/>
-        <v>24092</v>
+        <v>4880</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="5"/>
+        <v>23724</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1365,19 +1369,19 @@
       </c>
       <c r="C36" s="1">
         <f>SUM($B$2:B36)</f>
-        <v>29.440000000000005</v>
-      </c>
-      <c r="D36" s="10">
+        <v>29.32</v>
+      </c>
+      <c r="D36" s="9">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="4"/>
-        <v>5888.0000000000009</v>
-      </c>
-      <c r="F36" s="8">
-        <f t="shared" si="5"/>
-        <v>28996</v>
+        <v>5864</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="5"/>
+        <v>28604</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,23 +1390,23 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="C37" s="1">
         <f>SUM($B$2:B37)</f>
-        <v>35.350000000000009</v>
-      </c>
-      <c r="D37" s="10">
+        <v>35.22</v>
+      </c>
+      <c r="D37" s="9">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="4"/>
-        <v>7070.0000000000018</v>
-      </c>
-      <c r="F37" s="8">
-        <f t="shared" si="5"/>
-        <v>34884</v>
+        <v>7044</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="5"/>
+        <v>34468</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1411,23 +1415,23 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
-        <v>7.09</v>
+        <v>7.08</v>
       </c>
       <c r="C38" s="1">
         <f>SUM($B$2:B38)</f>
-        <v>42.440000000000012</v>
-      </c>
-      <c r="D38" s="10">
+        <v>42.3</v>
+      </c>
+      <c r="D38" s="9">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="4"/>
-        <v>8488.0000000000018</v>
-      </c>
-      <c r="F38" s="8">
-        <f t="shared" si="5"/>
-        <v>41954</v>
+        <v>8460</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="5"/>
+        <v>41512</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,23 +1440,23 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
-        <v>8.51</v>
+        <v>8.5</v>
       </c>
       <c r="C39" s="1">
         <f>SUM($B$2:B39)</f>
-        <v>50.95000000000001</v>
-      </c>
-      <c r="D39" s="10">
+        <v>50.8</v>
+      </c>
+      <c r="D39" s="9">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="4"/>
-        <v>10190.000000000002</v>
-      </c>
-      <c r="F39" s="8">
-        <f t="shared" si="5"/>
-        <v>50442</v>
+        <v>10160</v>
+      </c>
+      <c r="F39" s="7">
+        <f t="shared" si="5"/>
+        <v>49972</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1461,23 +1465,23 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
-        <v>10.210000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C40" s="1">
         <f>SUM($B$2:B40)</f>
-        <v>61.160000000000011</v>
-      </c>
-      <c r="D40" s="10">
+        <v>61</v>
+      </c>
+      <c r="D40" s="9">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="4"/>
-        <v>12232.000000000002</v>
-      </c>
-      <c r="F40" s="8">
-        <f t="shared" si="5"/>
-        <v>60632</v>
+        <v>12200</v>
+      </c>
+      <c r="F40" s="7">
+        <f t="shared" si="5"/>
+        <v>60132</v>
       </c>
     </row>
   </sheetData>
@@ -1487,4 +1491,1048 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6F882E-7AB3-462B-B48E-B9DF9ADE38D1}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="1">
+        <f>SUM($B$2:B2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E24" si="0">C2*$R$2*$P$3</f>
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>ROUNDDOWN($B$2*POWER($P$2,A2),2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUM($B$2:B3)</f>
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="9">
+        <f>D2+$P$3</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="7">
+        <f>F2+E2</f>
+        <v>0.2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B40" si="1">ROUNDDOWN($B$2*POWER($P$2,A3),2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="C4" s="1">
+        <f>SUM($B$2:B4)</f>
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" ref="D4:D40" si="2">D3+$P$3</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F24" si="3">F3+E3</f>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="1">
+        <f>SUM($B$2:B5)</f>
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="3"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="C6" s="1">
+        <f>SUM($B$2:B6)</f>
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="C7" s="1">
+        <f>SUM($B$2:B7)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="C8" s="1">
+        <f>SUM($B$2:B8)</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="2"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="C9" s="1">
+        <f>SUM($B$2:B9)</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000006</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="3"/>
+        <v>6.2000000000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="C10" s="1">
+        <f>SUM($B$2:B10)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000003E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000007</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="3"/>
+        <v>8.4000000000000021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM($B$2:B11)</f>
+        <v>0.17</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000004E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="3"/>
+        <v>11.200000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="C12" s="1">
+        <f>SUM($B$2:B12)</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000005E-3</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="3"/>
+        <v>14.600000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="C13" s="1">
+        <f>SUM($B$2:B13)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000006E-3</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="3"/>
+        <v>18.800000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="1">
+        <f>SUM($B$2:B14)</f>
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="2"/>
+        <v>2.4000000000000007E-3</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="3"/>
+        <v>23.800000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="C15" s="1">
+        <f>SUM($B$2:B15)</f>
+        <v>0.36</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="2"/>
+        <v>2.6000000000000007E-3</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="3"/>
+        <v>29.800000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <f>SUM($B$2:B16)</f>
+        <v>0.43</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000008E-3</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="3"/>
+        <v>37.000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="C17" s="1">
+        <f>SUM($B$2:B17)</f>
+        <v>0.51</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000009E-3</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>10.200000000000001</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="3"/>
+        <v>45.600000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="C18" s="1">
+        <f>SUM($B$2:B18)</f>
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="2"/>
+        <v>3.200000000000001E-3</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="3"/>
+        <v>55.800000000000011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="1">
+        <f>SUM($B$2:B19)</f>
+        <v>0.7</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="2"/>
+        <v>3.4000000000000011E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="3"/>
+        <v>67.800000000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="C20" s="1">
+        <f>SUM($B$2:B20)</f>
+        <v>0.82</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="2"/>
+        <v>3.6000000000000012E-3</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>16.400000000000002</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="3"/>
+        <v>81.800000000000011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C21" s="1">
+        <f>SUM($B$2:B21)</f>
+        <v>0.96</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="2"/>
+        <v>3.8000000000000013E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>19.2</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="3"/>
+        <v>98.200000000000017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="C22" s="1">
+        <f>SUM($B$2:B22)</f>
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="2"/>
+        <v>4.000000000000001E-3</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>22.4</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="3"/>
+        <v>117.40000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="C23" s="1">
+        <f>SUM($B$2:B23)</f>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000006E-3</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="3"/>
+        <v>139.80000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+      <c r="C24" s="1">
+        <f>SUM($B$2:B24)</f>
+        <v>1.5099999999999998</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>30.199999999999996</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="3"/>
+        <v>165.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="C25" s="1">
+        <f>SUM($B$2:B25)</f>
+        <v>1.7499999999999998</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" si="2"/>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="E25" s="1">
+        <f>C25*$R$2*$P$3</f>
+        <v>34.999999999999993</v>
+      </c>
+      <c r="F25" s="7">
+        <f>F24+E24</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C26" s="1">
+        <f>SUM($B$2:B26)</f>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="2"/>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" ref="E26:E40" si="4">C26*$R$2*$P$3</f>
+        <v>40.599999999999994</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" ref="F26:F40" si="5">F25+E25</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="C27" s="3">
+        <f>SUM($B$2:B27)</f>
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999992E-3</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="4"/>
+        <v>46.999999999999993</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="5"/>
+        <v>271.60000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="C28" s="1">
+        <f>SUM($B$2:B28)</f>
+        <v>2.7199999999999998</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="2"/>
+        <v>5.1999999999999989E-3</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="4"/>
+        <v>54.400000000000006</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="5"/>
+        <v>318.60000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+      <c r="C29" s="1">
+        <f>SUM($B$2:B29)</f>
+        <v>3.15</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="2"/>
+        <v>5.3999999999999986E-3</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="5"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="1">
+        <f>SUM($B$2:B30)</f>
+        <v>3.65</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5999999999999982E-3</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="5"/>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C31" s="1">
+        <f>SUM($B$2:B31)</f>
+        <v>4.22</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="2"/>
+        <v>5.7999999999999979E-3</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="4"/>
+        <v>84.4</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="5"/>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="C32" s="1">
+        <f>SUM($B$2:B32)</f>
+        <v>4.88</v>
+      </c>
+      <c r="D32" s="9">
+        <f t="shared" si="2"/>
+        <v>5.9999999999999975E-3</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="4"/>
+        <v>97.600000000000009</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="5"/>
+        <v>593.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="C33" s="1">
+        <f>SUM($B$2:B33)</f>
+        <v>5.64</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="2"/>
+        <v>6.1999999999999972E-3</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="4"/>
+        <v>112.80000000000001</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="5"/>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87</v>
+      </c>
+      <c r="C34" s="1">
+        <f>SUM($B$2:B34)</f>
+        <v>6.51</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="2"/>
+        <v>6.3999999999999968E-3</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="4"/>
+        <v>130.20000000000002</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="5"/>
+        <v>803.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <f>SUM($B$2:B35)</f>
+        <v>7.51</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" si="2"/>
+        <v>6.5999999999999965E-3</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="4"/>
+        <v>150.20000000000002</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="5"/>
+        <v>934</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C36" s="1">
+        <f>SUM($B$2:B36)</f>
+        <v>8.66</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="2"/>
+        <v>6.7999999999999962E-3</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="4"/>
+        <v>173.20000000000002</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="5"/>
+        <v>1084.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="1"/>
+        <v>1.33</v>
+      </c>
+      <c r="C37" s="1">
+        <f>SUM($B$2:B37)</f>
+        <v>9.99</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="2"/>
+        <v>6.9999999999999958E-3</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="4"/>
+        <v>199.8</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="5"/>
+        <v>1257.4000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="1"/>
+        <v>1.53</v>
+      </c>
+      <c r="C38" s="1">
+        <f>SUM($B$2:B38)</f>
+        <v>11.52</v>
+      </c>
+      <c r="D38" s="9">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999955E-3</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="4"/>
+        <v>230.4</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="5"/>
+        <v>1457.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="1"/>
+        <v>1.76</v>
+      </c>
+      <c r="C39" s="1">
+        <f>SUM($B$2:B39)</f>
+        <v>13.28</v>
+      </c>
+      <c r="D39" s="9">
+        <f t="shared" si="2"/>
+        <v>7.3999999999999951E-3</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="4"/>
+        <v>265.60000000000002</v>
+      </c>
+      <c r="F39" s="7">
+        <f t="shared" si="5"/>
+        <v>1687.6000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="1"/>
+        <v>2.02</v>
+      </c>
+      <c r="C40" s="1">
+        <f>SUM($B$2:B40)</f>
+        <v>15.299999999999999</v>
+      </c>
+      <c r="D40" s="9">
+        <f t="shared" si="2"/>
+        <v>7.5999999999999948E-3</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="F40" s="7">
+        <f t="shared" si="5"/>
+        <v>1953.2000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>